--- a/IMT_CD_P3_notas.xlsx
+++ b/IMT_CD_P3_notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ano_2024S2\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503CDF43-B6EA-4BB2-A95B-5BB8C04BD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D74BA8-97DA-49ED-8A8B-805B7C284E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Labs" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Prova e Projeto'!$A$1:$S$37</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Labs!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -492,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +513,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -561,16 +570,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,13 +587,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -597,9 +609,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -690,10 +700,10 @@
     <tableColumn id="1" xr3:uid="{34FEA488-F83D-446F-AAFA-BDFC36381D87}" uniqueName="1" name="Student" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{62C391DD-6AE8-47B0-A3D8-13761F21FABA}" uniqueName="2" name="ID" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{05DE4120-D17C-47F3-8C43-23A4669B3D76}" uniqueName="3" name="SIS User ID" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{9BBE1CE3-17BD-48CB-A702-C80A6A628B39}" uniqueName="35" name="Lab: Regressão Linear" queryTableFieldId="35" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{95090DE5-904D-480A-B29F-46F2C7408743}" uniqueName="37" name="Lab: Hot Encode, Normalização, Regressão Logística e K-Vizinhos mais Próximos" queryTableFieldId="37" dataDxfId="0"/>
-    <tableColumn id="33" xr3:uid="{5970E6FB-5474-4275-865C-F18445C155FC}" uniqueName="33" name="Lab: Regressão Linear (7395)" queryTableFieldId="33" dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{7F89BAF4-923F-4C55-A7E9-2BD8321AB95C}" uniqueName="34" name="Lab: Regressão Linear B (7407)" queryTableFieldId="34" dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{9BBE1CE3-17BD-48CB-A702-C80A6A628B39}" uniqueName="35" name="Lab: Regressão Linear" queryTableFieldId="35" dataDxfId="3"/>
+    <tableColumn id="37" xr3:uid="{95090DE5-904D-480A-B29F-46F2C7408743}" uniqueName="37" name="Lab: Hot Encode, Normalização, Regressão Logística e K-Vizinhos mais Próximos" queryTableFieldId="37" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{5970E6FB-5474-4275-865C-F18445C155FC}" uniqueName="33" name="Lab: Regressão Linear (7395)" queryTableFieldId="33" dataDxfId="1"/>
+    <tableColumn id="34" xr3:uid="{7F89BAF4-923F-4C55-A7E9-2BD8321AB95C}" uniqueName="34" name="Lab: Regressão Linear B (7407)" queryTableFieldId="34" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,67 +1008,67 @@
     <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
     <col min="5" max="15" width="4.28515625" style="1" customWidth="1"/>
     <col min="16" max="18" width="12.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="str">
+      <c r="P1" s="2" t="str">
         <f>_2024_10_13T2051_Notas_ECM514[[#Headers],[Lab: Regressão Linear]]</f>
         <v>Lab: Regressão Linear</v>
       </c>
-      <c r="Q1" s="5" t="str">
+      <c r="Q1" s="2" t="str">
         <f>_2024_10_13T2051_Notas_ECM514[[#Headers],[Lab: Hot Encode, Normalização, Regressão Logística e K-Vizinhos mais Próximos]]</f>
         <v>Lab: Hot Encode, Normalização, Regressão Logística e K-Vizinhos mais Próximos</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1116,11 +1126,11 @@
         <f>VLOOKUP(B2,Labs!C:E,3,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="R2" s="7">
-        <f>ROUND(AVERAGE(D2,P2,Q2),1)+0.5</f>
+      <c r="R2" s="4">
+        <f t="shared" ref="R2:R37" si="0">ROUND(AVERAGE(D2,P2,Q2),1)+0.5</f>
         <v>9.5</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1178,11 +1188,11 @@
         <f>VLOOKUP(B3,Labs!C:E,3,FALSE)</f>
         <v>10.5</v>
       </c>
-      <c r="R3" s="7">
-        <f t="shared" ref="R3:R37" si="0">ROUND(AVERAGE(D3,P3,Q3),1)+0.5</f>
+      <c r="R3" s="4">
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1193,10 +1203,10 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="1">
@@ -1240,11 +1250,11 @@
         <f>VLOOKUP(B4,Labs!C:E,3,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1302,11 +1312,11 @@
         <f>VLOOKUP(B5,Labs!C:E,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1364,11 +1374,11 @@
         <f>VLOOKUP(B6,Labs!C:E,3,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1426,11 +1436,11 @@
         <f>VLOOKUP(B7,Labs!C:E,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1488,11 +1498,11 @@
         <f>VLOOKUP(B8,Labs!C:E,3,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="4">
         <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1550,11 +1560,11 @@
         <f>VLOOKUP(B9,Labs!C:E,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1612,11 +1622,11 @@
         <f>VLOOKUP(B10,Labs!C:E,3,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="4">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="4">
         <v>4.5</v>
       </c>
     </row>
@@ -1674,11 +1684,11 @@
         <f>VLOOKUP(B11,Labs!C:E,3,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="4">
         <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1736,11 +1746,11 @@
         <f>VLOOKUP(B12,Labs!C:E,3,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="4">
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -1798,11 +1808,11 @@
         <f>VLOOKUP(B13,Labs!C:E,3,FALSE)</f>
         <v>10.5</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1856,15 +1866,14 @@
         <f>VLOOKUP(B14,Labs!C:E,2,FALSE)</f>
         <v>8.92</v>
       </c>
-      <c r="Q14" s="1">
-        <f>VLOOKUP(B14,Labs!C:E,3,FALSE)</f>
-        <v>5</v>
+      <c r="Q14" s="6">
+        <v>8</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="S14" s="7">
+        <f>ROUND(AVERAGE(D14,P14,Q14),1)</f>
+        <v>9</v>
+      </c>
+      <c r="S14" s="4">
         <v>3.5</v>
       </c>
     </row>
@@ -1922,11 +1931,11 @@
         <f>VLOOKUP(B15,Labs!C:E,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="4">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1984,20 +1993,20 @@
         <f>VLOOKUP(B16,Labs!C:E,3,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="4">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -2012,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2021,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -2033,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
         <f>VLOOKUP(B17,Labs!C:E,2,FALSE)</f>
@@ -2044,22 +2053,22 @@
       </c>
       <c r="Q17" s="1">
         <f>VLOOKUP(B17,Labs!C:E,3,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="R17" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="S17" s="7">
-        <v>9</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S17" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -2074,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -2083,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -2095,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <f>VLOOKUP(B18,Labs!C:E,2,FALSE)</f>
@@ -2106,28 +2115,28 @@
       </c>
       <c r="Q18" s="1">
         <f>VLOOKUP(B18,Labs!C:E,3,FALSE)</f>
-        <v>7.5</v>
-      </c>
-      <c r="R18" s="7">
+        <v>9</v>
+      </c>
+      <c r="R18" s="4">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S18" s="7">
-        <v>8</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S18" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2145,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -2164,142 +2173,142 @@
       </c>
       <c r="P19" s="1">
         <f>VLOOKUP(B19,Labs!C:E,2,FALSE)</f>
-        <v>4.25</v>
+        <v>10.17</v>
       </c>
       <c r="Q19" s="1">
         <f>VLOOKUP(B19,Labs!C:E,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f>VLOOKUP(B20,Labs!C:E,2,FALSE)</f>
+        <v>4.25</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>VLOOKUP(B20,Labs!C:E,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R20" s="4">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <f>VLOOKUP(B20,Labs!C:E,2,FALSE)</f>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <f>VLOOKUP(B21,Labs!C:E,2,FALSE)</f>
         <v>4.58</v>
       </c>
-      <c r="Q20" s="1">
-        <f>VLOOKUP(B20,Labs!C:E,3,FALSE)</f>
+      <c r="Q21" s="1">
+        <f>VLOOKUP(B21,Labs!C:E,3,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R21" s="4">
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S21" s="4">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <f>VLOOKUP(B21,Labs!C:E,2,FALSE)</f>
-        <v>10.17</v>
-      </c>
-      <c r="Q21" s="1">
-        <f>VLOOKUP(B21,Labs!C:E,3,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="R21" s="7">
-        <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="S21" s="7">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2356,11 +2365,11 @@
         <f>VLOOKUP(B22,Labs!C:E,3,FALSE)</f>
         <v>8.5</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="4">
         <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="4">
         <v>7.5</v>
       </c>
     </row>
@@ -2414,15 +2423,14 @@
         <f>VLOOKUP(B23,Labs!C:E,2,FALSE)</f>
         <v>3.25</v>
       </c>
-      <c r="Q23" s="1">
-        <f>VLOOKUP(B23,Labs!C:E,3,FALSE)</f>
-        <v>5.5</v>
+      <c r="Q23" s="6">
+        <v>8.5</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="S23" s="7">
+        <f>ROUND(AVERAGE(D23,P23,Q23),1)</f>
+        <v>7.3</v>
+      </c>
+      <c r="S23" s="4">
         <v>7</v>
       </c>
     </row>
@@ -2480,11 +2488,11 @@
         <f>VLOOKUP(B24,Labs!C:E,3,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2542,11 +2550,11 @@
         <f>VLOOKUP(B25,Labs!C:E,3,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="4">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2604,11 +2612,11 @@
         <f>VLOOKUP(B26,Labs!C:E,3,FALSE)</f>
         <v>5.5</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2666,11 +2674,11 @@
         <f>VLOOKUP(B27,Labs!C:E,3,FALSE)</f>
         <v>10.5</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="4">
         <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2728,11 +2736,11 @@
         <f>VLOOKUP(B28,Labs!C:E,3,FALSE)</f>
         <v>8.5</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="4">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2790,11 +2798,11 @@
         <f>VLOOKUP(B29,Labs!C:E,3,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2852,11 +2860,11 @@
         <f>VLOOKUP(B30,Labs!C:E,3,FALSE)</f>
         <v>10.5</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2914,11 +2922,11 @@
         <f>VLOOKUP(B31,Labs!C:E,3,FALSE)</f>
         <v>4.5</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="4">
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="4">
         <v>9.5</v>
       </c>
     </row>
@@ -2976,11 +2984,11 @@
         <f>VLOOKUP(B32,Labs!C:E,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="4">
         <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="4">
         <v>6</v>
       </c>
     </row>
@@ -3038,11 +3046,11 @@
         <f>VLOOKUP(B33,Labs!C:E,3,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="4">
         <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="4">
         <v>8</v>
       </c>
     </row>
@@ -3100,11 +3108,11 @@
         <f>VLOOKUP(B34,Labs!C:E,3,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="4">
         <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="4">
         <v>8</v>
       </c>
     </row>
@@ -3162,11 +3170,11 @@
         <f>VLOOKUP(B35,Labs!C:E,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="4">
         <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="4">
         <v>6</v>
       </c>
     </row>
@@ -3224,11 +3232,11 @@
         <f>VLOOKUP(B36,Labs!C:E,3,FALSE)</f>
         <v>7.5</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="4">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="4">
         <v>6</v>
       </c>
     </row>
@@ -3286,15 +3294,20 @@
         <f>VLOOKUP(B37,Labs!C:E,3,FALSE)</f>
         <v>5.5</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="4">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="4">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S37">
+      <sortCondition ref="A1:A37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3341,13 +3354,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
       <c r="B2">
         <v>965</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1">
@@ -3362,13 +3375,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3">
         <v>945</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="1">
@@ -3383,13 +3396,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
       <c r="B4">
         <v>925</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="1">
@@ -3401,13 +3414,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5">
         <v>902</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="1">
@@ -3422,13 +3435,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>107</v>
       </c>
       <c r="B6">
         <v>1246</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="1">
@@ -3443,13 +3456,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>108</v>
       </c>
       <c r="B7">
         <v>1034</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="1">
@@ -3464,13 +3477,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>109</v>
       </c>
       <c r="B8">
         <v>883</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1">
@@ -3482,13 +3495,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
       <c r="B9">
         <v>1236</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="1">
@@ -3503,13 +3516,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>111</v>
       </c>
       <c r="B10">
         <v>917</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="1">
@@ -3524,13 +3537,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>112</v>
       </c>
       <c r="B11">
         <v>962</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="1">
@@ -3545,13 +3558,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>113</v>
       </c>
       <c r="B12">
         <v>885</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="1">
@@ -3566,13 +3579,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>114</v>
       </c>
       <c r="B13">
         <v>1025</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="1">
@@ -3587,13 +3600,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>115</v>
       </c>
       <c r="B14">
         <v>1154</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1">
@@ -3608,13 +3621,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>116</v>
       </c>
       <c r="B15">
         <v>978</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="1">
@@ -3626,13 +3639,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>117</v>
       </c>
       <c r="B16">
         <v>981</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="1">
@@ -3647,13 +3660,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>118</v>
       </c>
       <c r="B17">
         <v>933</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="1">
@@ -3668,13 +3681,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>119</v>
       </c>
       <c r="B18">
         <v>932</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -3689,13 +3702,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>120</v>
       </c>
       <c r="B19">
         <v>1221</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="1">
@@ -3710,13 +3723,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>121</v>
       </c>
       <c r="B20">
         <v>1296</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1">
@@ -3731,13 +3744,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>122</v>
       </c>
       <c r="B21">
         <v>1270</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1">
@@ -3752,13 +3765,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>123</v>
       </c>
       <c r="B22">
         <v>884</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="1">
@@ -3773,13 +3786,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>124</v>
       </c>
       <c r="B23">
         <v>1061</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="1">
@@ -3794,13 +3807,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>125</v>
       </c>
       <c r="B24">
         <v>1038</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="1">
@@ -3815,13 +3828,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>126</v>
       </c>
       <c r="B25">
         <v>1074</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="1">
@@ -3836,13 +3849,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>127</v>
       </c>
       <c r="B26">
         <v>1127</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="1">
@@ -3857,13 +3870,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>128</v>
       </c>
       <c r="B27">
         <v>1032</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1">
@@ -3878,13 +3891,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>129</v>
       </c>
       <c r="B28">
         <v>1159</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="1">
@@ -3899,13 +3912,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>130</v>
       </c>
       <c r="B29">
         <v>1200</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="1">
@@ -3920,13 +3933,13 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>131</v>
       </c>
       <c r="B30">
         <v>1114</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="1">
@@ -3941,13 +3954,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>132</v>
       </c>
       <c r="B31">
         <v>1271</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="1">
@@ -3962,13 +3975,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>133</v>
       </c>
       <c r="B32">
         <v>1146</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1">
@@ -3983,13 +3996,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>134</v>
       </c>
       <c r="B33">
         <v>1080</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="1">
@@ -4004,13 +4017,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>135</v>
       </c>
       <c r="B34">
         <v>1112</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="1">
@@ -4025,13 +4038,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35">
         <v>845</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="1">
@@ -4046,13 +4059,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>137</v>
       </c>
       <c r="B36">
         <v>951</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="1">
@@ -4067,13 +4080,13 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>138</v>
       </c>
       <c r="B37">
         <v>846</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="1">
@@ -4088,13 +4101,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>139</v>
       </c>
       <c r="B38">
         <v>1016</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="1">
@@ -4109,13 +4122,13 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>140</v>
       </c>
       <c r="B39">
         <v>3552</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="1">
